--- a/data/trans_orig/P43D-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P43D-Edad-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>7137</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3225</v>
+        <v>2908</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14544</v>
+        <v>13545</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05847536396425616</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02642505416490894</v>
+        <v>0.0238282265102751</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1191645651694252</v>
+        <v>0.1109821296462374</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>35462</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>26175</v>
+        <v>26811</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>46031</v>
+        <v>46833</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2905562020134735</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.214462058955409</v>
+        <v>0.2196739403388735</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3771525742385578</v>
+        <v>0.3837246618194251</v>
       </c>
     </row>
     <row r="6">
@@ -682,19 +682,19 @@
         <v>45397</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>35439</v>
+        <v>35610</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>56591</v>
+        <v>55801</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3719613525422351</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2903692639762714</v>
+        <v>0.291773230200312</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.463674426553377</v>
+        <v>0.4572066242318688</v>
       </c>
     </row>
     <row r="7">
@@ -711,19 +711,19 @@
         <v>34052</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25389</v>
+        <v>25419</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45151</v>
+        <v>43764</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2790070814800353</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2080252219102823</v>
+        <v>0.2082719259388305</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.369948119899169</v>
+        <v>0.3585798536888676</v>
       </c>
     </row>
     <row r="8">
@@ -773,19 +773,19 @@
         <v>43081</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>31542</v>
+        <v>30993</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>56333</v>
+        <v>56715</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1106076853035553</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08098219309907914</v>
+        <v>0.07957131106370302</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1446303182380146</v>
+        <v>0.1456115834804741</v>
       </c>
     </row>
     <row r="10">
@@ -802,19 +802,19 @@
         <v>125181</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>107509</v>
+        <v>108851</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>145370</v>
+        <v>144670</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.321392136965251</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2760208669453667</v>
+        <v>0.2794671640628418</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3732259164921018</v>
+        <v>0.3714282563918751</v>
       </c>
     </row>
     <row r="11">
@@ -831,19 +831,19 @@
         <v>106728</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>88873</v>
+        <v>89709</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>124826</v>
+        <v>123068</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2740157518407342</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2281730847559849</v>
+        <v>0.2303205571952452</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3204813652697257</v>
+        <v>0.3159663636491464</v>
       </c>
     </row>
     <row r="12">
@@ -860,19 +860,19 @@
         <v>114506</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>96491</v>
+        <v>98367</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>133530</v>
+        <v>134132</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2939844258904595</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2477320362938525</v>
+        <v>0.2525490303815915</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3428265664768166</v>
+        <v>0.3443725688278353</v>
       </c>
     </row>
     <row r="13">
@@ -922,19 +922,19 @@
         <v>89391</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>72700</v>
+        <v>72461</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>105747</v>
+        <v>108260</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1837180596847865</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1494140732330757</v>
+        <v>0.1489239215842028</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2173342086572297</v>
+        <v>0.2224977844637286</v>
       </c>
     </row>
     <row r="15">
@@ -951,19 +951,19 @@
         <v>154421</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>131460</v>
+        <v>135122</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>174021</v>
+        <v>175852</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3173683552208803</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2701789812202786</v>
+        <v>0.2777045287941171</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3576505671413431</v>
+        <v>0.361414490186512</v>
       </c>
     </row>
     <row r="16">
@@ -980,19 +980,19 @@
         <v>147365</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>128237</v>
+        <v>127366</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>171548</v>
+        <v>168782</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3028668481861853</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2635544313455682</v>
+        <v>0.2617659027557506</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3525694034296836</v>
+        <v>0.3468831279133419</v>
       </c>
     </row>
     <row r="17">
@@ -1009,19 +1009,19 @@
         <v>95390</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>80439</v>
+        <v>78469</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>116004</v>
+        <v>114431</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1960467369081479</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1653206808179452</v>
+        <v>0.1612703024034883</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2384145928835159</v>
+        <v>0.2351818290947867</v>
       </c>
     </row>
     <row r="18">
@@ -1071,19 +1071,19 @@
         <v>70871</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>56458</v>
+        <v>57066</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>86586</v>
+        <v>87715</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1942045421716596</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1547095880042006</v>
+        <v>0.1563743772739336</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.237268192592875</v>
+        <v>0.2403617835475724</v>
       </c>
     </row>
     <row r="20">
@@ -1100,19 +1100,19 @@
         <v>124652</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>106973</v>
+        <v>107568</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>141933</v>
+        <v>141768</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3415782920599624</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2931332822448089</v>
+        <v>0.2947624109852257</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3889323069632195</v>
+        <v>0.3884792656576384</v>
       </c>
     </row>
     <row r="21">
@@ -1129,19 +1129,19 @@
         <v>103450</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>87217</v>
+        <v>86023</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>121092</v>
+        <v>119615</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2834782984896045</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2389957431928905</v>
+        <v>0.2357252521584818</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3318234749290748</v>
+        <v>0.3277749426516896</v>
       </c>
     </row>
     <row r="22">
@@ -1158,19 +1158,19 @@
         <v>65957</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>52344</v>
+        <v>50513</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>81142</v>
+        <v>79516</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1807388672787735</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1434370198567606</v>
+        <v>0.1384175982390941</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2223485194817839</v>
+        <v>0.2178944176650088</v>
       </c>
     </row>
     <row r="23">
@@ -1220,19 +1220,19 @@
         <v>88596</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>74321</v>
+        <v>74080</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>104226</v>
+        <v>103582</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3972330998656942</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3332295346312368</v>
+        <v>0.3321474924147491</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4673162597877249</v>
+        <v>0.464426001665622</v>
       </c>
     </row>
     <row r="25">
@@ -1249,19 +1249,19 @@
         <v>72608</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>58652</v>
+        <v>59098</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>85905</v>
+        <v>86477</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3255512770985876</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2629756852580922</v>
+        <v>0.2649775754605893</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3851686912097028</v>
+        <v>0.3877325674428281</v>
       </c>
     </row>
     <row r="26">
@@ -1278,19 +1278,19 @@
         <v>45448</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>33804</v>
+        <v>35284</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>57795</v>
+        <v>58453</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2037713144039035</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1515668221608748</v>
+        <v>0.1581997373271158</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2591317511257887</v>
+        <v>0.2620827570212468</v>
       </c>
     </row>
     <row r="27">
@@ -1307,19 +1307,19 @@
         <v>16380</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>9448</v>
+        <v>10384</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>26229</v>
+        <v>25426</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.07344430863181481</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.04236218284347881</v>
+        <v>0.04655631595684642</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1176010727535742</v>
+        <v>0.1140035374643633</v>
       </c>
     </row>
     <row r="28">
@@ -1369,19 +1369,19 @@
         <v>70446</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>60226</v>
+        <v>60565</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>81003</v>
+        <v>82378</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5438235763891101</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4649258810721418</v>
+        <v>0.467543731340183</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6253173439398882</v>
+        <v>0.6359321315640368</v>
       </c>
     </row>
     <row r="30">
@@ -1398,19 +1398,19 @@
         <v>34758</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>25924</v>
+        <v>26231</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>44572</v>
+        <v>44567</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2683218304601618</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2001268085028729</v>
+        <v>0.2024912046195234</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3440826801184447</v>
+        <v>0.3440468950745723</v>
       </c>
     </row>
     <row r="31">
@@ -1427,19 +1427,19 @@
         <v>18784</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>11329</v>
+        <v>12035</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>27629</v>
+        <v>28021</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1450065511975826</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.08745891945603713</v>
+        <v>0.09290881033077793</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2132895919671121</v>
+        <v>0.2163100391214232</v>
       </c>
     </row>
     <row r="32">
@@ -1456,19 +1456,19 @@
         <v>5550</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1930</v>
+        <v>1947</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>11389</v>
+        <v>11220</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0428480419531455</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01489863492005376</v>
+        <v>0.01502769067781331</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08791798568490575</v>
+        <v>0.08661765761152468</v>
       </c>
     </row>
     <row r="33">
@@ -1518,19 +1518,19 @@
         <v>52017</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>43886</v>
+        <v>43918</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>57641</v>
+        <v>56744</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.819193765143743</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.6911342675774056</v>
+        <v>0.6916401137195406</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9077619401597364</v>
+        <v>0.8936419380523498</v>
       </c>
     </row>
     <row r="35">
@@ -1547,19 +1547,19 @@
         <v>6972</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2382</v>
+        <v>3375</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>13774</v>
+        <v>13979</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1097941113279358</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03750907561121633</v>
+        <v>0.05315661197661</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2169143096896436</v>
+        <v>0.220152635751901</v>
       </c>
     </row>
     <row r="36">
@@ -1576,19 +1576,19 @@
         <v>4509</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1148</v>
+        <v>1137</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>10206</v>
+        <v>10691</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.07101212352832123</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01807149562505322</v>
+        <v>0.01791179014283807</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1607324503076133</v>
+        <v>0.1683730334870016</v>
       </c>
     </row>
     <row r="37">
@@ -1659,19 +1659,19 @@
         <v>421540</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>385495</v>
+        <v>386350</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>457917</v>
+        <v>459724</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.2369385911157015</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2166787100121388</v>
+        <v>0.2171595389119526</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2573853971836931</v>
+        <v>0.2584010304659555</v>
       </c>
     </row>
     <row r="40">
@@ -1688,19 +1688,19 @@
         <v>554054</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>515162</v>
+        <v>512638</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>591369</v>
+        <v>593794</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.3114219939752454</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2895619651179152</v>
+        <v>0.2881429094966899</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3323963876632391</v>
+        <v>0.3337591503472575</v>
       </c>
     </row>
     <row r="41">
@@ -1717,19 +1717,19 @@
         <v>471680</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>438420</v>
+        <v>434717</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>512528</v>
+        <v>508739</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2651215787801384</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2464266305844757</v>
+        <v>0.2443452863253578</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2880812473869181</v>
+        <v>0.285951616626042</v>
       </c>
     </row>
     <row r="42">
@@ -1746,19 +1746,19 @@
         <v>331836</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>299937</v>
+        <v>301357</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>364391</v>
+        <v>366339</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1865178361289147</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1685883874098451</v>
+        <v>0.1693864688288932</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2048163756879579</v>
+        <v>0.2059117492295763</v>
       </c>
     </row>
     <row r="43">
@@ -1929,19 +1929,19 @@
         <v>4055</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1040</v>
+        <v>1052</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10035</v>
+        <v>9859</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02422503825289283</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006212830216969258</v>
+        <v>0.00628521216711071</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05995674093889879</v>
+        <v>0.05890301407800465</v>
       </c>
     </row>
     <row r="5">
@@ -1958,19 +1958,19 @@
         <v>51595</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>39733</v>
+        <v>40425</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>63651</v>
+        <v>64166</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3082578815347869</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2373888000494986</v>
+        <v>0.2415180569935921</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3802853530847782</v>
+        <v>0.3833626319059891</v>
       </c>
     </row>
     <row r="6">
@@ -1987,19 +1987,19 @@
         <v>55076</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>43975</v>
+        <v>43852</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>67735</v>
+        <v>67891</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3290507696832057</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.262729937974977</v>
+        <v>0.2619946666186898</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4046857070123134</v>
+        <v>0.4056149708648211</v>
       </c>
     </row>
     <row r="7">
@@ -2016,19 +2016,19 @@
         <v>56651</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>44487</v>
+        <v>44271</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>69850</v>
+        <v>68486</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3384663105291146</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2657919319145453</v>
+        <v>0.2644973607589585</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4173228796164012</v>
+        <v>0.4091706580676051</v>
       </c>
     </row>
     <row r="8">
@@ -2078,19 +2078,19 @@
         <v>42902</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>31117</v>
+        <v>31373</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>56986</v>
+        <v>56750</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09533971693598522</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0691510285430897</v>
+        <v>0.06972003915996985</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1266380361187479</v>
+        <v>0.1261150277025342</v>
       </c>
     </row>
     <row r="10">
@@ -2107,19 +2107,19 @@
         <v>167303</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>146667</v>
+        <v>148044</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>186397</v>
+        <v>190134</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.371793922622455</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3259347904314075</v>
+        <v>0.3289965419686326</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4142273217265367</v>
+        <v>0.422530605718463</v>
       </c>
     </row>
     <row r="11">
@@ -2136,19 +2136,19 @@
         <v>138467</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>119703</v>
+        <v>117753</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>158272</v>
+        <v>159016</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3077119936409849</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2660143620684796</v>
+        <v>0.2616809824854784</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3517250538590596</v>
+        <v>0.3533773735714916</v>
       </c>
     </row>
     <row r="12">
@@ -2165,19 +2165,19 @@
         <v>101317</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>85297</v>
+        <v>83935</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>120213</v>
+        <v>122101</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2251543668005748</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1895529094877036</v>
+        <v>0.1865278202676072</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2671467665699369</v>
+        <v>0.2713432851120162</v>
       </c>
     </row>
     <row r="13">
@@ -2227,19 +2227,19 @@
         <v>81832</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>65923</v>
+        <v>66856</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>99593</v>
+        <v>100870</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1424983434966073</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1147946357990013</v>
+        <v>0.1164202047709659</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1734267383775273</v>
+        <v>0.1756500689814116</v>
       </c>
     </row>
     <row r="15">
@@ -2256,19 +2256,19 @@
         <v>194886</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>172385</v>
+        <v>172636</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>218358</v>
+        <v>219376</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.339366430628581</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3001835171190888</v>
+        <v>0.3006210802232637</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.380239007641023</v>
+        <v>0.3820121521236764</v>
       </c>
     </row>
     <row r="16">
@@ -2285,19 +2285,19 @@
         <v>172201</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>148689</v>
+        <v>147201</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>196671</v>
+        <v>194992</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2998630332941419</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2589203645045688</v>
+        <v>0.2563299587744555</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3424747614798716</v>
+        <v>0.3395510229181576</v>
       </c>
     </row>
     <row r="17">
@@ -2314,19 +2314,19 @@
         <v>125346</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>105550</v>
+        <v>106753</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>144997</v>
+        <v>149200</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2182721925806698</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1838005340394354</v>
+        <v>0.1858952189427107</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2524922716527137</v>
+        <v>0.2598111829755522</v>
       </c>
     </row>
     <row r="18">
@@ -2376,19 +2376,19 @@
         <v>80887</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>63286</v>
+        <v>64754</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>99457</v>
+        <v>99391</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1643741142026436</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1286053814317824</v>
+        <v>0.1315886967945233</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2021105060903593</v>
+        <v>0.2019757458698241</v>
       </c>
     </row>
     <row r="20">
@@ -2405,19 +2405,19 @@
         <v>187162</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>164655</v>
+        <v>164888</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>209628</v>
+        <v>209778</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3803386331842731</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3346011137760587</v>
+        <v>0.3350756175957907</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4259932557330035</v>
+        <v>0.4262977982429322</v>
       </c>
     </row>
     <row r="21">
@@ -2434,19 +2434,19 @@
         <v>153297</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>133702</v>
+        <v>132794</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>175287</v>
+        <v>174982</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3115196305029063</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2717014371609766</v>
+        <v>0.2698561136013017</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3562064384254643</v>
+        <v>0.3555879758150186</v>
       </c>
     </row>
     <row r="22">
@@ -2463,19 +2463,19 @@
         <v>70747</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>55289</v>
+        <v>55637</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>87858</v>
+        <v>86838</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1437676221101769</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1123555084022446</v>
+        <v>0.1130627186680363</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1785390175030464</v>
+        <v>0.1764666546301782</v>
       </c>
     </row>
     <row r="23">
@@ -2525,19 +2525,19 @@
         <v>80231</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>65248</v>
+        <v>64402</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>97315</v>
+        <v>96499</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2537692684827538</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2063798277923374</v>
+        <v>0.2037036597996527</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3078068026161165</v>
+        <v>0.3052253117339344</v>
       </c>
     </row>
     <row r="25">
@@ -2554,19 +2554,19 @@
         <v>114611</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>96906</v>
+        <v>97821</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>132418</v>
+        <v>133546</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3625135575319344</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.306512348946777</v>
+        <v>0.309408239003543</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4188388657865721</v>
+        <v>0.4224061499215514</v>
       </c>
     </row>
     <row r="26">
@@ -2583,19 +2583,19 @@
         <v>82475</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>68061</v>
+        <v>66745</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>98993</v>
+        <v>98969</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2608684464184136</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2152773765041596</v>
+        <v>0.2111147123634477</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3131159366075823</v>
+        <v>0.3130382622606572</v>
       </c>
     </row>
     <row r="27">
@@ -2612,19 +2612,19 @@
         <v>38839</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>27265</v>
+        <v>27923</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>53301</v>
+        <v>52013</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1228487275668984</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.08623926274169481</v>
+        <v>0.08831955958123464</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1685910797499058</v>
+        <v>0.164516836670468</v>
       </c>
     </row>
     <row r="28">
@@ -2674,19 +2674,19 @@
         <v>84790</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>71698</v>
+        <v>70357</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>98971</v>
+        <v>97458</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4711250196632635</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3983820593432473</v>
+        <v>0.3909297954951858</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5499164776425065</v>
+        <v>0.5415097660938638</v>
       </c>
     </row>
     <row r="30">
@@ -2703,19 +2703,19 @@
         <v>48654</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>36606</v>
+        <v>36877</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>61658</v>
+        <v>61053</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2703373487536206</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2033956258762704</v>
+        <v>0.2048995435311039</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3425963750174088</v>
+        <v>0.3392316486380919</v>
       </c>
     </row>
     <row r="31">
@@ -2732,19 +2732,19 @@
         <v>30432</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>20657</v>
+        <v>21113</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>41359</v>
+        <v>40458</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1690937999638448</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1147762377176815</v>
+        <v>0.1173137640089507</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2298027613207428</v>
+        <v>0.2248016493629436</v>
       </c>
     </row>
     <row r="32">
@@ -2761,19 +2761,19 @@
         <v>16098</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>8806</v>
+        <v>9253</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>26732</v>
+        <v>24696</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.08944383161927118</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04892867602645492</v>
+        <v>0.05141041932295305</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.148530160510836</v>
+        <v>0.1372186398743622</v>
       </c>
     </row>
     <row r="33">
@@ -2823,19 +2823,19 @@
         <v>71593</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>59766</v>
+        <v>61144</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>81247</v>
+        <v>81265</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.6504190052264019</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5429749590448193</v>
+        <v>0.5554926890456475</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.7381217740918332</v>
+        <v>0.7382868255938771</v>
       </c>
     </row>
     <row r="35">
@@ -2852,19 +2852,19 @@
         <v>26139</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>17991</v>
+        <v>16652</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>37055</v>
+        <v>35853</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2374716165327788</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1634494015068428</v>
+        <v>0.1512849038038418</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3366445700860005</v>
+        <v>0.3257268284953274</v>
       </c>
     </row>
     <row r="36">
@@ -2881,19 +2881,19 @@
         <v>6782</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2648</v>
+        <v>2690</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>13135</v>
+        <v>14351</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.06161413784025749</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02406005139069457</v>
+        <v>0.02444231276714789</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1193347820616842</v>
+        <v>0.1303753961058701</v>
       </c>
     </row>
     <row r="37">
@@ -2910,19 +2910,19 @@
         <v>5558</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2199</v>
+        <v>2169</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>12356</v>
+        <v>11317</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.05049524040056182</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01998168913091355</v>
+        <v>0.01970912702512259</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1122580461741808</v>
+        <v>0.102819005877377</v>
       </c>
     </row>
     <row r="38">
@@ -2972,19 +2972,19 @@
         <v>446289</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>407035</v>
+        <v>407493</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>482690</v>
+        <v>485637</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1948924972432961</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1777502841369793</v>
+        <v>0.1779503595175504</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2107887756466807</v>
+        <v>0.2120754504530567</v>
       </c>
     </row>
     <row r="40">
@@ -3001,19 +3001,19 @@
         <v>790350</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>738455</v>
+        <v>741710</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>835961</v>
+        <v>835344</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.3451422706086662</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.3224799171714019</v>
+        <v>0.3239015103063673</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3650607487862932</v>
+        <v>0.3647910445215047</v>
       </c>
     </row>
     <row r="41">
@@ -3030,19 +3030,19 @@
         <v>638729</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>592392</v>
+        <v>593527</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>682211</v>
+        <v>683076</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2789302878226556</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2586951451044591</v>
+        <v>0.2591908314956755</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2979186387349765</v>
+        <v>0.2982962546024898</v>
       </c>
     </row>
     <row r="42">
@@ -3059,19 +3059,19 @@
         <v>414556</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>378484</v>
+        <v>376927</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>455363</v>
+        <v>455811</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1810349443253821</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1652822547049987</v>
+        <v>0.1646023118769306</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1988551270479106</v>
+        <v>0.1990505392402565</v>
       </c>
     </row>
     <row r="43">
@@ -3242,19 +3242,19 @@
         <v>9501</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4727</v>
+        <v>4813</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16395</v>
+        <v>16668</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0580152061124619</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02886666167136154</v>
+        <v>0.02938807639057379</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1001181281039743</v>
+        <v>0.1017819044653073</v>
       </c>
     </row>
     <row r="5">
@@ -3271,19 +3271,19 @@
         <v>58852</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>47163</v>
+        <v>47424</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>71306</v>
+        <v>71989</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3593848019360039</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2880021808864455</v>
+        <v>0.2895981429447642</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4354343413152735</v>
+        <v>0.4396023875123337</v>
       </c>
     </row>
     <row r="6">
@@ -3300,19 +3300,19 @@
         <v>62303</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>51273</v>
+        <v>50350</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>74976</v>
+        <v>74968</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3804558986649058</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3131012563288093</v>
+        <v>0.3074617966484385</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4578456458041963</v>
+        <v>0.4577962881953023</v>
       </c>
     </row>
     <row r="7">
@@ -3329,19 +3329,19 @@
         <v>33103</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23671</v>
+        <v>23446</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>43981</v>
+        <v>43991</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2021440932866284</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1445490895401238</v>
+        <v>0.1431754189407722</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2685743427004678</v>
+        <v>0.2686317191358886</v>
       </c>
     </row>
     <row r="8">
@@ -3391,19 +3391,19 @@
         <v>45225</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>34019</v>
+        <v>33371</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>58109</v>
+        <v>58240</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1196222229785699</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08998160294656575</v>
+        <v>0.0882672217043451</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1537013973783513</v>
+        <v>0.1540462380409419</v>
       </c>
     </row>
     <row r="10">
@@ -3420,19 +3420,19 @@
         <v>170194</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>150408</v>
+        <v>150390</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>188930</v>
+        <v>190567</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4501693653365914</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3978354570108265</v>
+        <v>0.3977875614243805</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4997285776916826</v>
+        <v>0.5040570771137702</v>
       </c>
     </row>
     <row r="11">
@@ -3449,19 +3449,19 @@
         <v>109197</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>93289</v>
+        <v>92922</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>126691</v>
+        <v>126528</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2888294971108427</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2467538143704067</v>
+        <v>0.2457824971814095</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3351034885146227</v>
+        <v>0.3346704325359882</v>
       </c>
     </row>
     <row r="12">
@@ -3478,19 +3478,19 @@
         <v>53451</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>40883</v>
+        <v>41966</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>69867</v>
+        <v>67948</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1413789145739961</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1081380564839409</v>
+        <v>0.1110007966007607</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1848005464171035</v>
+        <v>0.1797265486605657</v>
       </c>
     </row>
     <row r="13">
@@ -3540,19 +3540,19 @@
         <v>59524</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>46605</v>
+        <v>47299</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>74867</v>
+        <v>72991</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1148532487334599</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08992659495301307</v>
+        <v>0.09126577229923055</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1444580629624257</v>
+        <v>0.1408389468047701</v>
       </c>
     </row>
     <row r="15">
@@ -3569,19 +3569,19 @@
         <v>249797</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>227231</v>
+        <v>227361</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>270656</v>
+        <v>272790</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4819939766811575</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.438452298530458</v>
+        <v>0.4387023597839296</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5222422724683817</v>
+        <v>0.5263595873649378</v>
       </c>
     </row>
     <row r="16">
@@ -3598,19 +3598,19 @@
         <v>120350</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>102318</v>
+        <v>102449</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>141291</v>
+        <v>140594</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2322199797717922</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1974260637479108</v>
+        <v>0.1976794909942041</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2726267989112134</v>
+        <v>0.2712814180924652</v>
       </c>
     </row>
     <row r="17">
@@ -3627,19 +3627,19 @@
         <v>88587</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>71829</v>
+        <v>71241</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>105744</v>
+        <v>105967</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1709327948135904</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1385965887276427</v>
+        <v>0.1374630237790977</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2040371385145809</v>
+        <v>0.2044680112663619</v>
       </c>
     </row>
     <row r="18">
@@ -3689,19 +3689,19 @@
         <v>94727</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>78053</v>
+        <v>78934</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>114135</v>
+        <v>113420</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1922111894766106</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1583768058481835</v>
+        <v>0.1601646725561241</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2315928914214309</v>
+        <v>0.2301401667216886</v>
       </c>
     </row>
     <row r="20">
@@ -3718,19 +3718,19 @@
         <v>224918</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>202002</v>
+        <v>203249</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>248303</v>
+        <v>248216</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4563819515700675</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.409883521573424</v>
+        <v>0.4124130600940867</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5038336377364345</v>
+        <v>0.5036558788403143</v>
       </c>
     </row>
     <row r="21">
@@ -3747,19 +3747,19 @@
         <v>112774</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>92744</v>
+        <v>96734</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>131350</v>
+        <v>132630</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2288304268806674</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1881873813428622</v>
+        <v>0.1962844242287646</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2665227804797325</v>
+        <v>0.2691193063635345</v>
       </c>
     </row>
     <row r="22">
@@ -3776,19 +3776,19 @@
         <v>60409</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>46187</v>
+        <v>46521</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>76516</v>
+        <v>77363</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1225764320726545</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09371832522002609</v>
+        <v>0.09439643355342182</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1552582187481885</v>
+        <v>0.156976681903605</v>
       </c>
     </row>
     <row r="23">
@@ -3838,19 +3838,19 @@
         <v>92979</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>76683</v>
+        <v>75658</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>111068</v>
+        <v>111031</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2803960406578986</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2312543310833576</v>
+        <v>0.228160890197321</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3349479583857862</v>
+        <v>0.3348365702798242</v>
       </c>
     </row>
     <row r="25">
@@ -3867,19 +3867,19 @@
         <v>147555</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>130164</v>
+        <v>128773</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>168676</v>
+        <v>167072</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.444980280433928</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3925359677974588</v>
+        <v>0.3883407906365638</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5086751278552866</v>
+        <v>0.5038393506382982</v>
       </c>
     </row>
     <row r="26">
@@ -3896,19 +3896,19 @@
         <v>54735</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>42953</v>
+        <v>41357</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>71549</v>
+        <v>70181</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1650657886748717</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1295331866767785</v>
+        <v>0.1247195722026194</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2157708420314393</v>
+        <v>0.2116455548258177</v>
       </c>
     </row>
     <row r="27">
@@ -3925,19 +3925,19 @@
         <v>36329</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>24747</v>
+        <v>25383</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>50625</v>
+        <v>50117</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1095578902333018</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.07463041633571692</v>
+        <v>0.0765475610983205</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1526700604296076</v>
+        <v>0.1511368455293644</v>
       </c>
     </row>
     <row r="28">
@@ -3987,19 +3987,19 @@
         <v>123500</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>107926</v>
+        <v>109155</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>137523</v>
+        <v>137452</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5714782785857534</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4994143383033277</v>
+        <v>0.5050997175827102</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6363695979387808</v>
+        <v>0.6360375073069284</v>
       </c>
     </row>
     <row r="30">
@@ -4016,19 +4016,19 @@
         <v>59639</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>47639</v>
+        <v>45589</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>74361</v>
+        <v>72282</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2759700829302194</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2204412895252766</v>
+        <v>0.2109588628483294</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3440929358520333</v>
+        <v>0.3344732030540404</v>
       </c>
     </row>
     <row r="31">
@@ -4045,19 +4045,19 @@
         <v>22125</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>13931</v>
+        <v>14822</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>31534</v>
+        <v>32758</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1023799450312957</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.06446352122867</v>
+        <v>0.06858658066948557</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1459189292544287</v>
+        <v>0.1515810409321673</v>
       </c>
     </row>
     <row r="32">
@@ -4074,19 +4074,19 @@
         <v>10842</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>5236</v>
+        <v>5785</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>19098</v>
+        <v>20695</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.05017169345273149</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02422929198622596</v>
+        <v>0.02676866473298244</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08837281290827972</v>
+        <v>0.09576408749365406</v>
       </c>
     </row>
     <row r="33">
@@ -4136,19 +4136,19 @@
         <v>105472</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>91504</v>
+        <v>92034</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>115806</v>
+        <v>115940</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.7616911303498809</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.6608138926204508</v>
+        <v>0.6646473086830476</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.836317672129867</v>
+        <v>0.8372861443925965</v>
       </c>
     </row>
     <row r="35">
@@ -4165,19 +4165,19 @@
         <v>20243</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>12176</v>
+        <v>11518</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>31956</v>
+        <v>31275</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1461860259802979</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.08792931000197378</v>
+        <v>0.08317769990423714</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2307754410233722</v>
+        <v>0.2258612519456765</v>
       </c>
     </row>
     <row r="36">
@@ -4194,19 +4194,19 @@
         <v>12756</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6280</v>
+        <v>5630</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>24942</v>
+        <v>23897</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.09212284366982122</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0453560448520586</v>
+        <v>0.04065634422067748</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1801254422215075</v>
+        <v>0.1725812512794969</v>
       </c>
     </row>
     <row r="37">
@@ -4277,19 +4277,19 @@
         <v>530927</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>488565</v>
+        <v>488244</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>569256</v>
+        <v>572325</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.2371178102170344</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2181981970597755</v>
+        <v>0.2180548896271747</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2542358482793081</v>
+        <v>0.2556066306937591</v>
       </c>
     </row>
     <row r="40">
@@ -4306,19 +4306,19 @@
         <v>931197</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>883562</v>
+        <v>880120</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>979581</v>
+        <v>980574</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.4158826986131929</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.3946083140207663</v>
+        <v>0.3930710532400413</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.437491455616569</v>
+        <v>0.4379350264934866</v>
       </c>
     </row>
     <row r="41">
@@ -4335,19 +4335,19 @@
         <v>494240</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>457437</v>
+        <v>457038</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>536234</v>
+        <v>535136</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2207330563461365</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2042961805959334</v>
+        <v>0.2041180697179382</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2394880524838458</v>
+        <v>0.2389977301814605</v>
       </c>
     </row>
     <row r="42">
@@ -4364,19 +4364,19 @@
         <v>282721</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>253162</v>
+        <v>252879</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>317486</v>
+        <v>317346</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1262664348236361</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1130650397369679</v>
+        <v>0.1129385610467744</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1417926589590569</v>
+        <v>0.1417302631037913</v>
       </c>
     </row>
     <row r="43">
@@ -4547,19 +4547,19 @@
         <v>5482</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1120</v>
+        <v>1157</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16086</v>
+        <v>16775</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1143812354547828</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02336584788250231</v>
+        <v>0.02414376896571644</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3356428762428137</v>
+        <v>0.350033621548528</v>
       </c>
     </row>
     <row r="5">
@@ -4576,19 +4576,19 @@
         <v>11277</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5373</v>
+        <v>4440</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20896</v>
+        <v>20461</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2353096704472804</v>
+        <v>0.2353096704472803</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1121103177987565</v>
+        <v>0.09263830641788935</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4360203279653699</v>
+        <v>0.4269301307972159</v>
       </c>
     </row>
     <row r="6">
@@ -4605,19 +4605,19 @@
         <v>18609</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10141</v>
+        <v>10055</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>27462</v>
+        <v>28696</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3883037524198719</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2116097588697241</v>
+        <v>0.2098153741594073</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5730099898643078</v>
+        <v>0.5987693866199203</v>
       </c>
     </row>
     <row r="7">
@@ -4634,19 +4634,19 @@
         <v>12557</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5150</v>
+        <v>5111</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21237</v>
+        <v>22375</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2620053416780649</v>
+        <v>0.2620053416780648</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1074680035446179</v>
+        <v>0.1066444522253258</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4431359074366298</v>
+        <v>0.4668729256419535</v>
       </c>
     </row>
     <row r="8">
@@ -4696,19 +4696,19 @@
         <v>24342</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>15637</v>
+        <v>15622</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>35605</v>
+        <v>35073</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1270834167509641</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08163656221158759</v>
+        <v>0.0815597993900596</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1858863729433807</v>
+        <v>0.1831051453478937</v>
       </c>
     </row>
     <row r="10">
@@ -4725,19 +4725,19 @@
         <v>83207</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>68704</v>
+        <v>68129</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>97446</v>
+        <v>97477</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4344022188467928</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.358683643382088</v>
+        <v>0.3556824507857417</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5087369859275804</v>
+        <v>0.5089003156332772</v>
       </c>
     </row>
     <row r="11">
@@ -4754,19 +4754,19 @@
         <v>43848</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>32149</v>
+        <v>33125</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>57813</v>
+        <v>57608</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.228916142526564</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1678402070629678</v>
+        <v>0.1729341889428417</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3018266052486859</v>
+        <v>0.3007565016856871</v>
       </c>
     </row>
     <row r="12">
@@ -4783,19 +4783,19 @@
         <v>40147</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>27725</v>
+        <v>29186</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>53274</v>
+        <v>54505</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2095982218756791</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1447465591489763</v>
+        <v>0.1523698918093142</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2781309868568662</v>
+        <v>0.2845559919971165</v>
       </c>
     </row>
     <row r="13">
@@ -4845,19 +4845,19 @@
         <v>55219</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>44755</v>
+        <v>44487</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>66511</v>
+        <v>66065</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1920360724829488</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1556448542380876</v>
+        <v>0.1547150228964801</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2313066835153643</v>
+        <v>0.2297555064186804</v>
       </c>
     </row>
     <row r="15">
@@ -4874,19 +4874,19 @@
         <v>108374</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>95332</v>
+        <v>94644</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>122708</v>
+        <v>121876</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3768946743798303</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3315397718014945</v>
+        <v>0.3291453757444827</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4267451124125916</v>
+        <v>0.4238503157927862</v>
       </c>
     </row>
     <row r="16">
@@ -4903,19 +4903,19 @@
         <v>69816</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>57642</v>
+        <v>58478</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>83423</v>
+        <v>83441</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2427999501435875</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2004616315696245</v>
+        <v>0.203369140589652</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2901239719640209</v>
+        <v>0.2901862827055777</v>
       </c>
     </row>
     <row r="17">
@@ -4932,19 +4932,19 @@
         <v>54136</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>43584</v>
+        <v>43939</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>65700</v>
+        <v>66325</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1882693029936335</v>
+        <v>0.1882693029936334</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1515730905857778</v>
+        <v>0.1528082257829587</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2284876673636312</v>
+        <v>0.2306614749668392</v>
       </c>
     </row>
     <row r="18">
@@ -4994,19 +4994,19 @@
         <v>65957</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>54762</v>
+        <v>55809</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>77294</v>
+        <v>78617</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1738402189391733</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1443328409493268</v>
+        <v>0.1470937399236908</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2037198336690902</v>
+        <v>0.2072061614352736</v>
       </c>
     </row>
     <row r="20">
@@ -5023,19 +5023,19 @@
         <v>141736</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>127249</v>
+        <v>125382</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>155679</v>
+        <v>155284</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3735658034579966</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3353837678567553</v>
+        <v>0.3304634278516387</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4103136689398242</v>
+        <v>0.4092726173294752</v>
       </c>
     </row>
     <row r="21">
@@ -5052,19 +5052,19 @@
         <v>103979</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>90204</v>
+        <v>91517</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>117663</v>
+        <v>118156</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2740508915366033</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2377456398717749</v>
+        <v>0.241205950454546</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3101185372989523</v>
+        <v>0.3114177317747376</v>
       </c>
     </row>
     <row r="22">
@@ -5081,19 +5081,19 @@
         <v>67742</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>56813</v>
+        <v>55449</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>79877</v>
+        <v>79097</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1785430860662267</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1497379627070182</v>
+        <v>0.1461443188503471</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2105281202458442</v>
+        <v>0.208471353372101</v>
       </c>
     </row>
     <row r="23">
@@ -5143,19 +5143,19 @@
         <v>80836</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>69199</v>
+        <v>69737</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>93482</v>
+        <v>93198</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2573571493922465</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2203072690082478</v>
+        <v>0.2220221232983824</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2976164181175842</v>
+        <v>0.2967137115371258</v>
       </c>
     </row>
     <row r="25">
@@ -5172,19 +5172,19 @@
         <v>123689</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>109995</v>
+        <v>110313</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>136847</v>
+        <v>137819</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3937879447103576</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3501899630252199</v>
+        <v>0.3512024632408549</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4356786165291217</v>
+        <v>0.4387716985817139</v>
       </c>
     </row>
     <row r="26">
@@ -5201,19 +5201,19 @@
         <v>73202</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>61166</v>
+        <v>63055</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>84951</v>
+        <v>84896</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2330537402935159</v>
+        <v>0.2330537402935158</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1947326470667272</v>
+        <v>0.2007490293904226</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2704564842890813</v>
+        <v>0.2702833247110211</v>
       </c>
     </row>
     <row r="27">
@@ -5230,19 +5230,19 @@
         <v>36373</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>27917</v>
+        <v>28838</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>45773</v>
+        <v>45631</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.11580116560388</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.0888786606244054</v>
+        <v>0.09180964601868793</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1457268063978282</v>
+        <v>0.1452757677407932</v>
       </c>
     </row>
     <row r="28">
@@ -5292,19 +5292,19 @@
         <v>100569</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>90108</v>
+        <v>90829</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>111741</v>
+        <v>110635</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.4705710457834354</v>
+        <v>0.4705710457834353</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4216214352409239</v>
+        <v>0.4249982527235991</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5228448831614323</v>
+        <v>0.5176707320771241</v>
       </c>
     </row>
     <row r="30">
@@ -5321,19 +5321,19 @@
         <v>65631</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>56378</v>
+        <v>55764</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>75610</v>
+        <v>75465</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3070908663285511</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2637953139365346</v>
+        <v>0.2609226996993446</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3537867434860235</v>
+        <v>0.3531078462783599</v>
       </c>
     </row>
     <row r="31">
@@ -5350,19 +5350,19 @@
         <v>30312</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>23590</v>
+        <v>23889</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>38171</v>
+        <v>38420</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1418341106384088</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1103792361817143</v>
+        <v>0.1117774937084118</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.178605676191129</v>
+        <v>0.1797690940969616</v>
       </c>
     </row>
     <row r="32">
@@ -5379,19 +5379,19 @@
         <v>17205</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>12418</v>
+        <v>11015</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>24430</v>
+        <v>23804</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.08050397724960473</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.05810434190342426</v>
+        <v>0.05153990963670776</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1143107539115378</v>
+        <v>0.1113793807951792</v>
       </c>
     </row>
     <row r="33">
@@ -5441,19 +5441,19 @@
         <v>146116</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>136855</v>
+        <v>138548</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>152194</v>
+        <v>152805</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.8590289140829845</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.8045846675728059</v>
+        <v>0.8145360027334597</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.8947614642897381</v>
+        <v>0.8983539558718766</v>
       </c>
     </row>
     <row r="35">
@@ -5470,19 +5470,19 @@
         <v>12017</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>7807</v>
+        <v>7875</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>17435</v>
+        <v>18436</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.07065079372434162</v>
+        <v>0.07065079372434163</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.04589628139788728</v>
+        <v>0.04630039176900148</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1025023249223876</v>
+        <v>0.1083895942462556</v>
       </c>
     </row>
     <row r="36">
@@ -5499,19 +5499,19 @@
         <v>10343</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6103</v>
+        <v>5666</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>17088</v>
+        <v>17738</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.06080482770711553</v>
+        <v>0.06080482770711552</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0358786947656836</v>
+        <v>0.03330922526770481</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1004635945356731</v>
+        <v>0.1042832758259739</v>
       </c>
     </row>
     <row r="37">
@@ -5528,19 +5528,19 @@
         <v>1619</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>4189</v>
+        <v>4564</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.009515464485558353</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.002439017692784966</v>
+        <v>0.002469274769538174</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.02462660031551527</v>
+        <v>0.02683303464777509</v>
       </c>
     </row>
     <row r="38">
@@ -5590,19 +5590,19 @@
         <v>478520</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>451018</v>
+        <v>449537</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>510135</v>
+        <v>511239</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.2982666287554234</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2811242626675721</v>
+        <v>0.2802006789194221</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3179720714375642</v>
+        <v>0.3186604656107699</v>
       </c>
     </row>
     <row r="40">
@@ -5619,19 +5619,19 @@
         <v>545931</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>513887</v>
+        <v>514521</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>577128</v>
+        <v>580668</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.3402842634971081</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.3203111659076128</v>
+        <v>0.3207063287416353</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3597298455247792</v>
+        <v>0.3619360014752174</v>
       </c>
     </row>
     <row r="41">
@@ -5648,19 +5648,19 @@
         <v>350108</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>322463</v>
+        <v>322446</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>378392</v>
+        <v>381804</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2182261352880227</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2009946954468392</v>
+        <v>0.2009835609515069</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2358552927737451</v>
+        <v>0.2379825587340045</v>
       </c>
     </row>
     <row r="42">
@@ -5677,19 +5677,19 @@
         <v>229778</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>208475</v>
+        <v>206933</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>254744</v>
+        <v>255412</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.1432229724594457</v>
+        <v>0.1432229724594458</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1299445527062253</v>
+        <v>0.1289835216721252</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1587843918181361</v>
+        <v>0.1592005689231437</v>
       </c>
     </row>
     <row r="43">
